--- a/Dataset/s_wants_type.xlsx
+++ b/Dataset/s_wants_type.xlsx
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -444,6 +444,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
         <v>2</v>
       </c>
     </row>
